--- a/medicine/Enfance/Magali_Bonniol/Magali_Bonniol.xlsx
+++ b/medicine/Enfance/Magali_Bonniol/Magali_Bonniol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magali Bonniol, née en 1976, est une artiste française, peintre, illustratrice et auteure de littérature jeunesse.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magali Bonniol a étudié à l'École supérieure d'art et de design Marseille-Méditerranée (ESADMM)[1].
-Elle est éditée à L'École des loisirs, dès son premier album, en 2000[2],[3], à l'âge de 24 ans.
-Elle travaille, entre autres, à la peinture et à l'aquarelle[4].
-En 2003, elle illustre l'album Cornebidouille[5] écrit par Pierre Bertrand. Plusieurs histoires lui feront suite, dont La Vengeance de Cornebidouille en 2010, Gloups ! J'ai avalé Cornebidouille[6] en 2013, ou  Non Cornebidouille, pas mon doudou ! en 2019. « Après s’être taillé une solide réputation dans les bibliothèques des enfants, la répugnante sorcière imaginée par Pierre Bertrand et Magali Bonniol devient l’héroïne d’une série de podcasts »[7], comme l'écrit Télérama fin 2020.
-Elle illustre également la série Minusman, commencée en 2007, écrite par Nathalie Brisac[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magali Bonniol a étudié à l'École supérieure d'art et de design Marseille-Méditerranée (ESADMM).
+Elle est éditée à L'École des loisirs, dès son premier album, en 2000 à l'âge de 24 ans.
+Elle travaille, entre autres, à la peinture et à l'aquarelle.
+En 2003, elle illustre l'album Cornebidouille écrit par Pierre Bertrand. Plusieurs histoires lui feront suite, dont La Vengeance de Cornebidouille en 2010, Gloups ! J'ai avalé Cornebidouille en 2013, ou  Non Cornebidouille, pas mon doudou ! en 2019. « Après s’être taillé une solide réputation dans les bibliothèques des enfants, la répugnante sorcière imaginée par Pierre Bertrand et Magali Bonniol devient l’héroïne d’une série de podcasts », comme l'écrit Télérama fin 2020.
+Elle illustre également la série Minusman, commencée en 2007, écrite par Nathalie Brisac.
 </t>
         </is>
       </c>
@@ -548,9 +562,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteure et illustratrice
-Pipi dans l'herbe[2],[3], L'École des loisirs, 2000
-Rien faire[9], l'École des loisirs, 2000
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pipi dans l'herbe L'École des loisirs, 2000
+Rien faire, l'École des loisirs, 2000
 Le Secret de la cocotte magique, l'École des loisirs, 2001
 La Fille de l'arbre, l'École des loisirs, 2002
 Le Goûter de Noël, l'École des loisirs, 2002
@@ -561,75 +580,77 @@
 L'anniversaire de Mimmo, l'École des loisirs, 2006
 Caillou-bijou, l'École des loisirs, 2006
 Série Ninni Caillou
-Ninni Caillou[10], l'École des loisirs, 2007
+Ninni Caillou, l'École des loisirs, 2007
 L'oeuf de Ninni Caillou, l'École des loisirs, 2007
 La Chanson de Ninni Caillou, l'École des loisirs, 2007
 Le Trésor de Ninni Caillou, l'École des loisirs, 2007
 Tournicotte, l'École des loisirs, 2008
 Riquiqui, l'École des loisirs, 2009
 Aldo, l'École des loisirs, 2010
-Aldo et la neige[11], l'École des loisirs, 2012
-Le Cadeau[12], l'École des loisirs, 2012
-C'est la nuit[13], l'École des loisirs, 2013
-Illustratrice
- Imbécile heureux[14], texte de Kéthévane Davrichewy, ill. de Magali Bonniol, L'École des loisirs, 2002
- Cornebidouille[5],[7], texte de Pierre Bertrand, ill. par Magali Bonniol, l'École des loisirs, 2003
- Les malheurs d'Hortense[15], texte de Elvire Murail (Moka), ill. de Magali Bonniol, l'École des loisirs, 2003
+Aldo et la neige, l'École des loisirs, 2012
+Le Cadeau, l'École des loisirs, 2012
+C'est la nuit, l'École des loisirs, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Magali_Bonniol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magali_Bonniol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Imbécile heureux, texte de Kéthévane Davrichewy, ill. de Magali Bonniol, L'École des loisirs, 2002
+ Cornebidouille texte de Pierre Bertrand, ill. par Magali Bonniol, l'École des loisirs, 2003
+ Les malheurs d'Hortense, texte de Elvire Murail (Moka), ill. de Magali Bonniol, l'École des loisirs, 2003
 La petite fille qui ne voulait plus cracher, texte de Agnès de Lestrade, ill. de Magali Bonniol, l'École des loisirs, 2003
 Le grand jour, texte de Isabelle Rossignol, ill. de Magali Bonniol, l'École des loisirs, 2004
  Jason et les filles, Kéthévane Davrichewy, ill. de Magali Bonniol, l'École des loisirs, 2004
- Le soleil, notre étoile[16], texte de Roland Lehoucq, illustrations de Magali Bonniol, Le Pommier, 2008
- Contes de Syrie : La fille du génie[17], contes choisis, trad. et adaptés par Soraya Khalidy, ill. de Magali Bonniol, l'École des loisirs, 2005
+ Le soleil, notre étoile, texte de Roland Lehoucq, illustrations de Magali Bonniol, Le Pommier, 2008
+ Contes de Syrie : La fille du génie, contes choisis, trad. et adaptés par Soraya Khalidy, ill. de Magali Bonniol, l'École des loisirs, 2005
  Rousse, texte de Pierre Bertrand, ill. par Magali Bonniol, l'École des loisirs, 2005
- Le jour où j'ai cassé le château de Chambord[18], texte de Olivier Adam, ill.de Magali Bonniol, l'École des loisirs, 2005
- Contes du Kordofan (Soudan) : Jemeil, attaché sur la bête sauvage[19], contes recueillis et trad. par Patricia Musa, ill. de Magali Bonniol, l'École des loisirs, 2005
- Je veux voir la mer[20], texte de Sylvie Misslin, illustrée par Magali Bonniol, l'École des loisirs, 2006
+ Le jour où j'ai cassé le château de Chambord, texte de Olivier Adam, ill.de Magali Bonniol, l'École des loisirs, 2005
+ Contes du Kordofan (Soudan) : Jemeil, attaché sur la bête sauvage, contes recueillis et trad. par Patricia Musa, ill. de Magali Bonniol, l'École des loisirs, 2005
+ Je veux voir la mer, texte de Sylvie Misslin, illustrée par Magali Bonniol, l'École des loisirs, 2006
  Minusman, texte de Nathalie Brisac, illustrations de Magali Bonniol, l'Ecole des loisirs, 2007
- Minusman et les 100 papiers[21], texte de Nathalie Brisac, illustrations de Magali Bonniol, l'Ecole des loisirs, 2007
+ Minusman et les 100 papiers, texte de Nathalie Brisac, illustrations de Magali Bonniol, l'Ecole des loisirs, 2007
  Tropèl grignotte, texte de Pierre Bertrand, ill. par Magali Bonniol, l'École des loisirs, 2007
  Le grand voyage de Minusman, texte de Nathalie Brisac, illustrations de Magali Bonniol, l'École des loisirs, 2008
  Pouet Pouet, texte de Pierre Bertrand, ill. par Magali Bonniol, l'École des loisirs, 2009
  Minusman.net, texte de Nathalie Brisac, illustrations de Magali Bonniol, l'Ecole des loisirs, 2009
  La Vengeance de Cornebidouille, texte de Pierre Bertrand, ill. par Magali Bonniol, l'École des loisirs, 2010
- Minusman et le croque-amour[8], texte de Nathalie Brisac, illustrations de Magali Bonniol, l'Ecole des loisirs, 2011
+ Minusman et le croque-amour, texte de Nathalie Brisac, illustrations de Magali Bonniol, l'Ecole des loisirs, 2011
  Cornebidouille contre Cornebidouille, texte de Pierre Bertrand, ill. par Magali Bonniol, l'École des loisirs, 2013
-Gloups ! J'ai avalé Cornebidouille ![6], texte de Pierre Bertrand, ill. par Magali Bonniol, l'École des loisirs, 2013
+Gloups ! J'ai avalé Cornebidouille !, texte de Pierre Bertrand, ill. par Magali Bonniol, l'École des loisirs, 2013
 3 histoires d'Oscar et Martin : 4 à 7 ans, texte de Marie-Hélène Place, ill. Magali Bonniol, Hatier jeunesse, 2018
  Non Cornebidouille, pas mon doudou !, texte de Pierre Bertrand, ill. par Magali Bonniol, l'École des loisirs, 2019
 Podcast
-Cornebidouille[7], série de podcasts, d'après Pierre Bertrand et Magali Bonniol, Paradiso Média, 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Magali_Bonniol</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Magali_Bonniol</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Quelques expositions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2015 : Bibliothèque Louis-Aragon, Chartres[22]
-2017 : Médiathèque George-Sand à Mably (Loire)[4]
-2022 : « Expo : A la rencontre de Cornebidouille de Magali Bonniol », Centre Culturel Joseph Kessel, Villepinte (Seine-Saint-Denis)[23]</t>
+Cornebidouille, série de podcasts, d'après Pierre Bertrand et Magali Bonniol, Paradiso Média, 2020</t>
         </is>
       </c>
     </row>
@@ -654,10 +675,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Quelques expositions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2015 : Bibliothèque Louis-Aragon, Chartres
+2017 : Médiathèque George-Sand à Mably (Loire)
+2022 : « Expo : A la rencontre de Cornebidouille de Magali Bonniol », Centre Culturel Joseph Kessel, Villepinte (Seine-Saint-Denis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Magali_Bonniol</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magali_Bonniol</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
